--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
   <si>
     <t>GET</t>
   </si>
@@ -266,12 +266,6 @@
     <t>/login</t>
   </si>
   <si>
-    <t>login(EmployeeLoginRequest)</t>
-  </si>
-  <si>
-    <t>EmployeeLoginResponse</t>
-  </si>
-  <si>
     <t>/employee/{employeeId}</t>
   </si>
   <si>
@@ -311,7 +305,16 @@
     <t>setPassword(EmployeeRef, String)</t>
   </si>
   <si>
-    <t>register(Company, Employee, String password)</t>
+    <t>/registration</t>
+  </si>
+  <si>
+    <t>register(Registration)</t>
+  </si>
+  <si>
+    <t>login(WsLoginCredentials)</t>
+  </si>
+  <si>
+    <t>LoginResponse</t>
   </si>
 </sst>
 </file>
@@ -335,12 +338,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -355,11 +370,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,221 +685,221 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="str">
         <f>"/company"</f>
         <v>/company</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="2" t="str">
         <f>"/company/{companyId}"</f>
         <v>/company/{companyId}</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="2" t="str">
         <f>"/company/{companyId}"</f>
         <v>/company/{companyId}</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f>"/item"</f>
         <v>/item</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="3" t="str">
         <f>"/item/{itemId}"</f>
         <v>/item/{itemId}</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="3" t="str">
         <f>"/item/{itemId}"</f>
         <v>/item/{itemId}</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="str">
         <f>"/item/{itemId}/picture"</f>
         <v>/item/{itemId}/picture</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="3" t="str">
         <f>"/item/{itemId}/picture/{id}"</f>
         <v>/item/{itemId}/picture/{id}</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="3" t="str">
         <f>"/item/{itemId}/picture/{id}"</f>
         <v>/item/{itemId}/picture/{id}</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1187,92 +1204,101 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -659,15 +659,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>GET</t>
   </si>
@@ -125,9 +125,6 @@
     <t>getAccount(AccountRef)</t>
   </si>
   <si>
-    <t>searchAccount(AccountSearch)</t>
-  </si>
-  <si>
     <t>createSale(Sale)</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>Item[]</t>
   </si>
   <si>
-    <t>searchItems(ItemSearch)</t>
-  </si>
-  <si>
     <t>/item/search</t>
   </si>
   <si>
@@ -315,6 +309,42 @@
   </si>
   <si>
     <t>LoginResponse</t>
+  </si>
+  <si>
+    <t>PosRef</t>
+  </si>
+  <si>
+    <t>createPos(Pos)</t>
+  </si>
+  <si>
+    <t>updatePos(Pos)</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>getPos(PosRef)</t>
+  </si>
+  <si>
+    <t>Pos[]</t>
+  </si>
+  <si>
+    <t>/pos</t>
+  </si>
+  <si>
+    <t>/pos/search</t>
+  </si>
+  <si>
+    <t>/pos/{posId}</t>
+  </si>
+  <si>
+    <t>findPosList(PosSearch)</t>
+  </si>
+  <si>
+    <t>findAccounts(AccountSearch)</t>
+  </si>
+  <si>
+    <t>findItems(ItemSearch)</t>
   </si>
 </sst>
 </file>
@@ -657,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,16 +702,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -704,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -719,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -776,30 +806,30 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
@@ -822,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -837,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
@@ -872,433 +902,489 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
         <f>"/sale"</f>
         <v>/sale</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="str">
         <f>"/sale/{saleId}"</f>
         <v>/sale/{saleId}</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
         <v>0</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D28" t="str">
         <f>"/sale/{saleId}"</f>
         <v>/sale/{saleId}</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="str">
         <f>"/accounting"</f>
         <v>/accounting</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="str">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="str">
         <f>"/accounting/{accountingEntryId}"</f>
         <v>/accounting/{accountingEntryId}</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
         <v>0</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D38" t="str">
         <f>"/accounting/{accountingEntryId}"</f>
         <v>/accounting/{accountingEntryId}</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,16 +990,16 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="str">
         <f>"/sale"</f>
         <v>/sale</v>
       </c>
@@ -1020,16 +1020,16 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="2" t="str">
         <f>"/sale/{saleId}"</f>
         <v>/sale/{saleId}</v>
       </c>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,89 +760,89 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="str">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f>"/item"</f>
         <v>/item</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f>"/item/{itemId}"</f>
         <v>/item/{itemId}</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="2" t="str">
         <f>"/item/{itemId}"</f>
         <v>/item/{itemId}</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="str">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="str">
         <f>"/item/{itemId}/picture"</f>
         <v>/item/{itemId}/picture</v>
       </c>
@@ -863,19 +863,25 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="2" t="str">
         <f>"/item/{itemId}/picture/{id}"</f>
         <v>/item/{itemId}/picture/{id}</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>RETURN TYPE</t>
   </si>
@@ -176,6 +176,18 @@
     <t>getSale(SaleRef)</t>
   </si>
   <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>deleteSale(SaleRef)</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/sale/{saleId}/state/OPEN</t>
+  </si>
+  <si>
     <t>closeSale(SaleRef)</t>
   </si>
   <si>
@@ -203,13 +215,16 @@
     <t>getItemSale(ItemSaleRef)</t>
   </si>
   <si>
-    <t>void</t>
+    <t>ItemSale[]</t>
+  </si>
+  <si>
+    <t>findItemSales(ItemSaleSearch)</t>
+  </si>
+  <si>
+    <t>itemSale/search</t>
   </si>
   <si>
     <t>deleteItemSale(ItemSaleRef)</t>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
   <si>
     <t>AccountingEntryRef</t>
@@ -377,7 +392,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,7 +402,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF66CC00"/>
+        <bgColor rgb="FF99CC66"/>
       </patternFill>
     </fill>
     <fill>
@@ -399,6 +414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66CC00"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC66"/>
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
@@ -437,7 +458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,6 +476,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,7 +508,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF99CC66"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -535,10 +560,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,147 +915,147 @@
         <v>/sale/{saleId}</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="B30" s="0" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>59</v>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="0" t="str">
+        <v>55</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="0" t="str">
         <f aca="false">"/accounting"</f>
         <v>/accounting</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="0" t="str">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="0" t="str">
         <f aca="false">"/accounting/{accountingEntryId}"</f>
         <v>/accounting/{accountingEntryId}</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="0" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="0" t="str">
+      <c r="D40" s="0" t="str">
         <f aca="false">"/accounting/{accountingEntryId}"</f>
         <v>/accounting/{accountingEntryId}</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,65 +1066,65 @@
         <v>76</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="0" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1111,136 +1136,164 @@
         <v>86</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>104</v>
+      <c r="A60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>106</v>
+      <c r="B64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\comptoir\comptoir-ws\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
   <si>
     <t>RETURN TYPE</t>
   </si>
@@ -221,9 +225,6 @@
     <t>findItemSales(ItemSaleSearch)</t>
   </si>
   <si>
-    <t>itemSale/search</t>
-  </si>
-  <si>
     <t>deleteItemSale(ItemSaleRef)</t>
   </si>
   <si>
@@ -351,16 +352,25 @@
   </si>
   <si>
     <t>/registration</t>
+  </si>
+  <si>
+    <t>AccountingEntry[]</t>
+  </si>
+  <si>
+    <t>findAccountingEntries(AccountingEntrySearch)</t>
+  </si>
+  <si>
+    <t>/itemSale/search</t>
+  </si>
+  <si>
+    <t>/accountingEntry/search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -369,22 +379,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -392,7 +387,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,9 +418,21 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -433,65 +440,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -550,32 +520,306 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5708502024291"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5344129554656"/>
+    <col min="1" max="1" width="23.42578125"/>
+    <col min="2" max="2" width="43.85546875"/>
+    <col min="3" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="38.5703125"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -600,11 +844,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f aca="false">"/company"</f>
+        <f>"/company"</f>
         <v>/company</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -615,11 +859,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f aca="false">"/company/{companyId}"</f>
+        <f>"/company/{companyId}"</f>
         <v>/company/{companyId}</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -630,11 +874,11 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f aca="false">"/company/{companyId}"</f>
+        <f>"/company/{companyId}"</f>
         <v>/company/{companyId}</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -645,11 +889,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f aca="false">"/item"</f>
+        <f>"/item"</f>
         <v>/item</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -660,11 +904,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f aca="false">"/item/{itemId}"</f>
+        <f>"/item/{itemId}"</f>
         <v>/item/{itemId}</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -675,11 +919,11 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f aca="false">"/item/{itemId}"</f>
+        <f>"/item/{itemId}"</f>
         <v>/item/{itemId}</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -693,7 +937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -707,7 +951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -718,11 +962,11 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f aca="false">"/item/{itemId}/picture"</f>
+        <f>"/item/{itemId}/picture"</f>
         <v>/item/{itemId}/picture</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -733,11 +977,11 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f aca="false">"/item/{itemId}/picture/{id}"</f>
+        <f>"/item/{itemId}/picture/{id}"</f>
         <v>/item/{itemId}/picture/{id}</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -748,17 +992,17 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f aca="false">"/item/{itemId}/picture/{id}"</f>
+        <f>"/item/{itemId}/picture/{id}"</f>
         <v>/item/{itemId}/picture/{id}</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -772,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -786,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -800,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -814,7 +1058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -828,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -842,7 +1086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -856,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -870,7 +1114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -881,26 +1125,26 @@
         <v>6</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f aca="false">"/sale"</f>
+        <f>"/sale"</f>
         <v>/sale</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="0" t="str">
-        <f aca="false">"/sale/{saleId}"</f>
+      <c r="D27" s="6" t="str">
+        <f>"/sale/{saleId}"</f>
         <v>/sale/{saleId}</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -911,11 +1155,11 @@
         <v>11</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f aca="false">"/sale/{saleId}"</f>
+        <f>"/sale/{saleId}"</f>
         <v>/sale/{saleId}</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -929,21 +1173,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
@@ -957,7 +1201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -971,21 +1215,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -996,313 +1240,322 @@
         <v>6</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f>"/accountingEntry"</f>
+        <v>/accountingEntry</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f>"/accountingEntry/{accountingEntryId}"</f>
+        <v>/accountingEntry/{accountingEntryId}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f>"/accountingEntry/{accountingEntryId}"</f>
+        <v>/accountingEntry/{accountingEntryId}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="B46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="0" t="str">
-        <f aca="false">"/accounting"</f>
-        <v>/accounting</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="D46" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="0" t="str">
-        <f aca="false">"/accounting/{accountingEntryId}"</f>
-        <v>/accounting/{accountingEntryId}</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="D47" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="0" t="str">
-        <f aca="false">"/accounting/{accountingEntryId}"</f>
-        <v>/accounting/{accountingEntryId}</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="D51" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="D53" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="D55" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="B63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="3" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
   <si>
     <t>RETURN TYPE</t>
   </si>
@@ -333,15 +333,6 @@
     <t>updateEmployee(Employee)</t>
   </si>
   <si>
-    <t>LoginResponse</t>
-  </si>
-  <si>
-    <t>login(WsLoginCredentials)</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
     <t>setPassword(EmployeeRef, String)</t>
   </si>
   <si>
@@ -364,6 +355,21 @@
   </si>
   <si>
     <t>/accountingEntry/search</t>
+  </si>
+  <si>
+    <t>WsAuth</t>
+  </si>
+  <si>
+    <t>/auth</t>
+  </si>
+  <si>
+    <t>authenticate(WsLoginCredentials)</t>
+  </si>
+  <si>
+    <t>setPassword(EmployeeRef, String password)</t>
+  </si>
+  <si>
+    <t>/employee/{employeeId}/password/{password}</t>
   </si>
 </sst>
 </file>
@@ -806,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +821,7 @@
     <col min="1" max="1" width="23.42578125"/>
     <col min="2" max="2" width="43.85546875"/>
     <col min="3" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="38.5703125"/>
+    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
@@ -1240,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,16 +1295,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,16 +1365,16 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1512,18 +1518,32 @@
         <v>96</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,13 +1551,13 @@
         <v>53</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,17 +1565,17 @@
         <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -333,12 +333,6 @@
     <t>updateEmployee(Employee)</t>
   </si>
   <si>
-    <t>setPassword(EmployeeRef, String)</t>
-  </si>
-  <si>
-    <t>/employee/{employeeId}/password</t>
-  </si>
-  <si>
     <t>register(Registration)</t>
   </si>
   <si>
@@ -370,6 +364,12 @@
   </si>
   <si>
     <t>/employee/{employeeId}/password/{password}</t>
+  </si>
+  <si>
+    <t>refreshAuth(String refreshToken)</t>
+  </si>
+  <si>
+    <t>/auth/refresh/{refreshToken}</t>
   </si>
 </sst>
 </file>
@@ -408,12 +408,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF66CC00"/>
         <bgColor rgb="FF92D050"/>
       </patternFill>
@@ -434,6 +428,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -457,11 +457,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,16 +973,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="9" t="str">
         <f>"/item/{itemId}/picture/{id}"</f>
         <v>/item/{itemId}/picture/{id}</v>
       </c>
@@ -1009,30 +1009,30 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1065,44 +1065,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1136,16 +1136,16 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="6" t="str">
+      <c r="D27" s="5" t="str">
         <f>"/sale/{saleId}"</f>
         <v>/sale/{saleId}</v>
       </c>
@@ -1180,398 +1180,398 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>110</v>
+      <c r="C35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="6" t="str">
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="str">
         <f>"/accountingEntry"</f>
         <v>/accountingEntry</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="6" t="str">
+      <c r="D39" s="5" t="str">
         <f>"/accountingEntry/{accountingEntryId}"</f>
         <v>/accountingEntry/{accountingEntryId}</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="6" t="str">
+      <c r="D41" s="5" t="str">
         <f>"/accountingEntry/{accountingEntryId}"</f>
         <v>/accountingEntry/{accountingEntryId}</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="C49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>116</v>
+      <c r="B59" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -408,12 +408,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66CC00"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF99CC66"/>
         <bgColor rgb="FF92D050"/>
       </patternFill>
@@ -436,6 +430,12 @@
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -456,11 +456,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,16 +973,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="8" t="str">
         <f>"/item/{itemId}/picture/{id}"</f>
         <v>/item/{itemId}/picture/{id}</v>
       </c>
@@ -1009,30 +1009,30 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1065,44 +1065,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1136,16 +1136,16 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="4" t="str">
         <f>"/sale/{saleId}"</f>
         <v>/sale/{saleId}</v>
       </c>
@@ -1180,355 +1180,355 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="5" t="str">
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="str">
         <f>"/accountingEntry"</f>
         <v>/accountingEntry</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="5" t="str">
+      <c r="D39" s="4" t="str">
         <f>"/accountingEntry/{accountingEntryId}"</f>
         <v>/accountingEntry/{accountingEntryId}</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="5" t="str">
+      <c r="D41" s="4" t="str">
         <f>"/accountingEntry/{accountingEntryId}"</f>
         <v>/accountingEntry/{accountingEntryId}</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="C56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>114</v>
       </c>
     </row>

--- a/comptoir-ws/API.xlsx
+++ b/comptoir-ws/API.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
   <si>
     <t>RETURN TYPE</t>
   </si>
@@ -370,6 +371,12 @@
   </si>
   <si>
     <t>/auth/refresh/{refreshToken}</t>
+  </si>
+  <si>
+    <t>number(,2)</t>
+  </si>
+  <si>
+    <t>getSaleTotalPayed(SaleRef)</t>
   </si>
 </sst>
 </file>
@@ -810,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,18 +1200,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>61</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>"/sale/{saleId}/payed"</f>
+        <v>/sale/{saleId}/payed</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,70 +1220,69 @@
         <v>59</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4" t="str">
-        <f>"/accountingEntry"</f>
-        <v>/accountingEntry</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,57 +1290,58 @@
         <v>69</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>"/accountingEntry"</f>
+        <v>/accountingEntry</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D40" s="4" t="str">
         <f>"/accountingEntry/{accountingEntryId}"</f>
         <v>/accountingEntry/{accountingEntryId}</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D42" s="4" t="str">
         <f>"/accountingEntry/{accountingEntryId}"</f>
         <v>/accountingEntry/{accountingEntryId}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,24 +1349,24 @@
         <v>74</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>78</v>
@@ -1366,13 +1374,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>78</v>
@@ -1380,30 +1388,30 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,97 +1419,97 @@
         <v>84</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D56" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,41 +1517,41 @@
         <v>100</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="C60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,26 +1559,40 @@
         <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>105</v>
       </c>
     </row>
